--- a/medicine/Mort/Terrorisme_en_1958/Terrorisme_en_1958.xlsx
+++ b/medicine/Mort/Terrorisme_en_1958/Terrorisme_en_1958.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,19 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-25 août, France : dans le cadre de la guerre d'Algérie, début d'une vague d'attentats par le Front de libération nationale sur l'ensemble du territoire métropolitain contre des postes de police, des casernes, des dépôts de carburants et autres intérêts économiques[1].
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25 août, France : dans le cadre de la guerre d'Algérie, début d'une vague d'attentats par le Front de libération nationale sur l'ensemble du territoire métropolitain contre des postes de police, des casernes, des dépôts de carburants et autres intérêts économiques.</t>
         </is>
       </c>
     </row>
